--- a/doc/FenJiInfo.xlsx
+++ b/doc/FenJiInfo.xlsx
@@ -515,7 +515,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -605,7 +605,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I2" s="5">
         <v>1.2199999988079071</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I3" s="5">
         <v>1.2199999988079071</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I4" s="5">
         <v>1.2199999988079071</v>
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I5" s="5">
         <v>1.2199999988079071</v>
@@ -801,7 +801,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I6" s="5">
         <v>1.2199999988079071</v>
@@ -849,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I7" s="5">
         <v>1.2199999988079071</v>
@@ -897,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I8" s="5">
         <v>1.2000000029802322</v>
